--- a/BusPassengerListCreationTool/bin/Debug/net8.0-windows/template/あごころ乗車名簿_2025-03-01.xlsx
+++ b/BusPassengerListCreationTool/bin/Debug/net8.0-windows/template/あごころ乗車名簿_2025-03-01.xlsx
@@ -19,7 +19,7 @@
     <x:t>運行日</x:t>
   </x:si>
   <x:si>
-    <x:t>2025年03月07日</x:t>
+    <x:t>令和7年3月7日</x:t>
   </x:si>
   <x:si>
     <x:t>名前</x:t>
@@ -37,46 +37,28 @@
     <x:t>備考</x:t>
   </x:si>
   <x:si>
-    <x:t>山崎　義男</x:t>
-  </x:si>
-  <x:si>
-    <x:t>福井市本堂町＊＊＊＊＊＊＊</x:t>
-  </x:si>
-  <x:si>
-    <x:t>00-0000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>桜ヶ丘</x:t>
-  </x:si>
-  <x:si>
-    <x:t>支援が必要です</x:t>
-  </x:si>
-  <x:si>
-    <x:t>山田　花子</x:t>
-  </x:si>
-  <x:si>
-    <x:t>福井市本堂町＊＊＊＊＊＊＊＊＊＊＊＊＊＊＊＊</x:t>
-  </x:si>
-  <x:si>
-    <x:t>080-0000-0000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>本堂</x:t>
+    <x:t>小澤　二郎</x:t>
+  </x:si>
+  <x:si>
+    <x:t>福井市羽坂町＊＊＊＊＊＊＊＊＊</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00-0000-0000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>羽坂団地</x:t>
   </x:si>
   <x:si>
     <x:t/>
   </x:si>
   <x:si>
-    <x:t>斎藤　史郎</x:t>
-  </x:si>
-  <x:si>
-    <x:t>福井市安田町＊＊＊＊＊</x:t>
-  </x:si>
-  <x:si>
-    <x:t>00-0000-0000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>北堀</x:t>
+    <x:t>宮永　良子</x:t>
+  </x:si>
+  <x:si>
+    <x:t>福井市恐神町＊＊＊＊＊＊＊＊＊</x:t>
+  </x:si>
+  <x:si>
+    <x:t>恐神</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -427,7 +409,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:E6"/>
+  <x:dimension ref="A1:E5"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -486,30 +468,13 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="C5" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="D5" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="D5" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
       <x:c r="E5" s="0" t="s">
-        <x:v>16</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="1:5">
-      <x:c r="A6" s="0" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="B6" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="C6" s="0" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="D6" s="0" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="E6" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
